--- a/Presentations/XGBoost algorithm Interpretation.xlsx
+++ b/Presentations/XGBoost algorithm Interpretation.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT REPO\Python-Practise\Presentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921EE482-FFEB-4094-8042-C04965963C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1A745B-7E14-45D0-B314-ECD61C402C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1215E660-B873-4AC8-BE1E-1285CEB3F701}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1215E660-B873-4AC8-BE1E-1285CEB3F701}"/>
   </bookViews>
   <sheets>
     <sheet name="XGBoost Tree Regressor " sheetId="1" r:id="rId1"/>
     <sheet name="XGBoost Classifier" sheetId="2" r:id="rId2"/>
+    <sheet name="LightGBM Classifier" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'XGBoost Classifier'!$C$2:$J$51</definedName>
@@ -179,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -722,23 +723,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2636,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42DBB90-1E62-4283-9CFA-EB7F599EF560}">
-  <dimension ref="C2:J19"/>
+  <dimension ref="C2:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:J3"/>
@@ -2646,15 +2646,15 @@
   <cols>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>3</v>
       </c>
@@ -2662,320 +2662,307 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="8">
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>0.82</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <f>D4-$D$14</f>
         <v>0.31999999999999995</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <f>E4^2</f>
         <v>0.10239999999999996</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>0.31999999999999995</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>0.81</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f t="shared" ref="E5:E13" si="0">D5-$D$14</f>
         <v>0.31000000000000005</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <f t="shared" ref="F5:F13" si="1">E5^2</f>
         <v>9.6100000000000033E-2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>0.31000000000000005</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>0.31000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>0.79</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>8.4100000000000022E-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>0.29000000000000004</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>0.78</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>7.8400000000000011E-2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>-0.21999999999999997</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>4.8399999999999992E-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>-0.21999999999999997</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>-0.21999999999999997</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>-0.21000000000000002</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>4.4100000000000007E-2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>-0.21000000000000002</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>-0.21000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>-0.21000000000000002</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>4.4100000000000007E-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>-0.21000000000000002</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <v>-0.21000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>0.31</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>-0.19</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>3.61E-2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>-0.19</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>0.31</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>-0.19</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>3.61E-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>-0.19</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>-0.19</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <v>0.32</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>-0.18</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>-0.18</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <v>-0.18</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <f>AVERAGE(D4:D13)</f>
         <v>0.5</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <f>SUM(F4:F13)</f>
         <v>0.60220000000000007</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="8" t="s">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <f>F14/10</f>
         <v>6.022000000000001E-2</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <f>SUM($G$4:$G$7)^2/4</f>
         <v>0.3600000000000001</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <f>SUM($H$4:$H$9)^2/6</f>
         <v>9.8816666666666719E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <f>SUM($G$8:$G$13)^2/6</f>
         <v>0.24</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <f>SUM($H$10:$H$13)^2/4</f>
         <v>0.148225</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <f>(F16+F17)-$D$16</f>
         <v>0.53978000000000004</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="H19" s="1">
@@ -2992,14 +2979,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DBF908-872E-4C41-8B26-ED3C688CE4C9}">
   <dimension ref="C2:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -3007,45 +2994,45 @@
     <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" style="7" customWidth="1"/>
+    <col min="12" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.33203125" style="7" customWidth="1"/>
+    <col min="15" max="16" width="10.33203125" customWidth="1"/>
     <col min="18" max="18" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" t="s">
         <v>37</v>
       </c>
       <c r="N2" t="s">
@@ -3053,43 +3040,43 @@
       </c>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="7">
+      <c r="K3">
+        <v>0.5</v>
+      </c>
+      <c r="L3">
         <f>1-K3</f>
         <v>0.5</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3">
         <f>K3*L3</f>
         <v>0.25</v>
       </c>
       <c r="N3">
-        <f>J3-K3</f>
+        <f t="shared" ref="N3:N34" si="0">J3-K3</f>
         <v>-0.5</v>
       </c>
       <c r="R3" t="s">
@@ -3101,43 +3088,43 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ref="L4:L51" si="0">1-K4</f>
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" ref="M4:M51" si="1">K4*L4</f>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L51" si="1">1-K4</f>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M51" si="2">K4*L4</f>
         <v>0.25</v>
       </c>
-      <c r="N4" s="7">
-        <f>J4-K4</f>
+      <c r="N4">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
       <c r="R4" t="s">
@@ -3149,84 +3136,84 @@
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N5" s="7">
-        <f>J5-K5</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7">
-        <v>4</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="N6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N6" s="7">
-        <f>J6-K6</f>
         <v>-0.5</v>
       </c>
       <c r="R6" t="s">
@@ -3238,84 +3225,84 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="7">
-        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N7" s="7">
-        <f>J7-K7</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="7">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
-        <v>4</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N8" s="7">
-        <f>J8-K8</f>
         <v>-0.5</v>
       </c>
       <c r="R8" t="s">
@@ -3323,43 +3310,43 @@
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N9" s="7">
-        <f>J9-K9</f>
         <v>-0.5</v>
       </c>
       <c r="R9" t="s">
@@ -3371,46 +3358,46 @@
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7" t="s">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N10" s="7">
-        <f>J10-K10</f>
         <v>-0.5</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" t="s">
         <v>42</v>
       </c>
       <c r="R10" t="s">
@@ -3422,552 +3409,545 @@
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N11" s="7">
-        <f>J11-K11</f>
         <v>-0.5</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11">
         <f>S9/S10</f>
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="7">
-        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N12" s="7">
-        <f>J12-K12</f>
-        <v>-0.5</v>
-      </c>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="7">
-        <v>4</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N13" s="7">
-        <f>J13-K13</f>
         <v>-0.5</v>
       </c>
       <c r="R13" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="7"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N14" s="7">
-        <f>J14-K14</f>
         <v>-0.5</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" t="s">
         <v>36</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14">
         <f>SUMIFS($N$3:$N$51,$D$3:$D$51,"group2")^2</f>
         <v>132.25</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N15" s="7">
-        <f>J15-K15</f>
         <v>-0.5</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15">
         <f>SUMIFS($M$3:$M$51,$D$3:$D$51,"group2")</f>
         <v>5.75</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N16">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N16" s="7">
-        <f>J16-K16</f>
         <v>-0.5</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16">
         <f>S14/S15</f>
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M17" s="7">
-        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N17" s="7">
-        <f>J17-K17</f>
+      <c r="N18">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="7">
-        <v>4</v>
-      </c>
-      <c r="G18" s="7">
-        <v>4</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M18" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N18" s="7">
-        <f>J18-K18</f>
-        <v>-0.5</v>
-      </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18">
         <f>S11+S16-S6</f>
         <v>48.816326530612244</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M19" s="7">
-        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N19" s="7">
-        <f>J19-K19</f>
+      <c r="N20">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7" t="s">
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="G20" s="7">
-        <v>4</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="K20" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="7">
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N20" s="7">
-        <f>J20-K20</f>
         <v>-0.5</v>
       </c>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L21" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N21" s="7">
-        <f>J21-K21</f>
-        <v>-0.5</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4</v>
-      </c>
-      <c r="G22" s="7">
-        <v>2</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M22" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N22" s="7">
-        <f>J22-K22</f>
-        <v>-0.5</v>
-      </c>
-      <c r="R22" s="8" t="s">
+      <c r="R22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="S22" s="2">
@@ -3979,1209 +3959,1209 @@
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L23" s="7">
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M23" s="7">
-        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="5">
+        <v>22.073469387755104</v>
+      </c>
+      <c r="T23" s="5">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N23" s="7">
-        <f>J23-K23</f>
+      <c r="N24">
+        <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="R23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="8">
-        <v>22.073469387755104</v>
-      </c>
-      <c r="T23" s="8">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="R24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="5">
+        <v>14.005515719801434</v>
+      </c>
+      <c r="T24" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="7">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L24" s="7">
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="M24" s="7">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N24" s="7">
-        <f>J24-K24</f>
-        <v>-0.5</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="S24" s="8">
-        <v>14.005515719801434</v>
-      </c>
-      <c r="T24" s="8">
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N51" si="3">J35-K35</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0.5</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G44" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H44" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I44" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L25" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M25" s="7">
-        <f t="shared" si="1"/>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N25" s="7">
-        <f>J25-K25</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45">
         <v>2</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46">
         <v>4</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="7">
-        <f t="shared" si="1"/>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N26" s="7">
-        <f>J26-K26</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F47">
         <v>4</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G47">
         <v>2</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0.5</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0.5</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0.5</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L27" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M27" s="7">
-        <f t="shared" si="1"/>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N27" s="7">
-        <f>J27-K27</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51">
         <v>2</v>
       </c>
-      <c r="G28" s="7">
-        <v>2</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L28" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M28" s="7">
-        <f t="shared" si="1"/>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="N28" s="7">
-        <f>J28-K28</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L29" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M29" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N29" s="7">
-        <f>J29-K29</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="7">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M30" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N30" s="7">
-        <f>J30-K30</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="7">
-        <v>4</v>
-      </c>
-      <c r="G31" s="7">
-        <v>4</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1</v>
-      </c>
-      <c r="K31" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M31" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N31" s="7">
-        <f>J31-K31</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7">
-        <v>3</v>
-      </c>
-      <c r="G32" s="7">
-        <v>4</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="7">
-        <v>1</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M32" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N32" s="7">
-        <f>J32-K32</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M33" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N33" s="7">
-        <f>J33-K33</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="7">
-        <v>1</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L34" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M34" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N34" s="7">
-        <f>J34-K34</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="7">
-        <v>4</v>
-      </c>
-      <c r="G35" s="7">
-        <v>2</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="7">
-        <v>1</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M35" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N35" s="7">
-        <f>J35-K35</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="7">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7">
-        <v>4</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="7">
-        <v>1</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M36" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N36" s="7">
-        <f>J36-K36</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="7">
-        <v>1</v>
-      </c>
-      <c r="K37" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M37" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N37" s="7">
-        <f>J37-K37</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C38" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="7">
-        <v>3</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="7">
-        <v>1</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M38" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N38" s="7">
-        <f>J38-K38</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="7">
-        <v>4</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="7">
-        <v>1</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M39" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N39" s="7">
-        <f>J39-K39</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C40" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="7">
-        <v>4</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="7">
-        <v>1</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L40" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M40" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N40" s="7">
-        <f>J40-K40</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="7">
-        <v>4</v>
-      </c>
-      <c r="G41" s="7">
-        <v>2</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="7">
-        <v>1</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M41" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N41" s="7">
-        <f>J41-K41</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="7">
-        <v>4</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="7">
-        <v>1</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L42" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M42" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N42" s="7">
-        <f>J42-K42</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="7">
-        <v>2</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="7">
-        <v>1</v>
-      </c>
-      <c r="K43" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M43" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N43" s="7">
-        <f>J43-K43</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C44" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="7">
-        <v>3</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J44" s="7">
-        <v>1</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M44" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N44" s="7">
-        <f>J44-K44</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="7">
-        <v>2</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="7">
-        <v>1</v>
-      </c>
-      <c r="K45" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L45" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M45" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N45" s="7">
-        <f>J45-K45</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" s="7">
-        <v>4</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="7">
-        <v>1</v>
-      </c>
-      <c r="K46" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M46" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N46" s="7">
-        <f>J46-K46</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="7">
-        <v>4</v>
-      </c>
-      <c r="G47" s="7">
-        <v>2</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="7">
-        <v>1</v>
-      </c>
-      <c r="K47" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L47" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M47" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N47" s="7">
-        <f>J47-K47</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="7">
-        <v>4</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="7">
-        <v>1</v>
-      </c>
-      <c r="K48" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L48" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M48" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N48" s="7">
-        <f>J48-K48</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="7">
-        <v>1</v>
-      </c>
-      <c r="K49" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M49" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N49" s="7">
-        <f>J49-K49</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C50" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="7">
-        <v>4</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="7">
-        <v>1</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M50" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N50" s="7">
-        <f>J50-K50</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C51" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="7">
-        <v>2</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="7">
-        <v>1</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="L51" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="M51" s="7">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="N51" s="7">
-        <f>J51-K51</f>
+      <c r="N51">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
@@ -5204,4 +5184,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E001749D-FF5A-4600-9D6C-C53FAA006730}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>